--- a/experiment result/64_0.9_40_zs0_kappa_lp.xlsx
+++ b/experiment result/64_0.9_40_zs0_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005807909218373724</v>
+        <v>0.001478388079436848</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01012265899553808</v>
+        <v>0.001997338877797652</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01877665982841889</v>
+        <v>0.002812494504345103</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02352464715700638</v>
+        <v>0.01130233301279266</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.008677287582800352</v>
+        <v>0.001009951691081154</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01981585142977216</v>
+        <v>0.009388147998056318</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01384711402841227</v>
+        <v>0.001125710801839351</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.008699693343518873</v>
+        <v>0.002406422022723435</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.01913296581067925</v>
+        <v>0.003430683140247299</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01987754952080499</v>
+        <v>0.02244677781859366</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0165528940061478</v>
+        <v>0.01878356189539144</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02561577441406806</v>
+        <v>0.01970904972885545</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01128443415648206</v>
+        <v>0.001036749065886169</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02275418278504451</v>
+        <v>0.002609474568356193</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02327731711214789</v>
+        <v>0.01813626318859798</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01068110792649503</v>
+        <v>0.0122991894915646</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02376640018529015</v>
+        <v>0.01534085330221949</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009926265433049983</v>
+        <v>0.002344664880498747</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01618261157525467</v>
+        <v>0.005752394828310805</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01890476088667394</v>
+        <v>0.009475422766716505</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01042267624234328</v>
+        <v>0.001837871566077686</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01279029192444471</v>
+        <v>0.002036861675463939</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01175940387437078</v>
+        <v>0.001617170925552185</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006948972796960167</v>
+        <v>0.001081919514176539</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007182114614567236</v>
+        <v>0.001967683372732319</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02313757686292723</v>
+        <v>0.006474365473694108</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01553751464908506</v>
+        <v>0.002452847058019803</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01648488172666443</v>
+        <v>0.005045680928109928</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02073491974899094</v>
+        <v>0.02354466897390406</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01873330743985932</v>
+        <v>0.006951564051740472</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.006465392276301417</v>
+        <v>0.004255787995901203</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0188186617769899</v>
+        <v>0.00550873621198527</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02178611699139501</v>
+        <v>0.002277235321908204</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01183599716302557</v>
+        <v>0.0005479848623777007</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01976004761907931</v>
+        <v>0.0213078570846509</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01922535521154026</v>
+        <v>0.003436864048776829</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01476252397258041</v>
+        <v>0.001632560683788502</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01274754449951109</v>
+        <v>0.0008414806382126752</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01136813799822185</v>
+        <v>0.0009543273533524731</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01825271808030849</v>
+        <v>0.009358719755386331</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01816338146984101</v>
+        <v>0.01612072443328649</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.01513251723420831</v>
+        <v>0.007104039482310502</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.008547632371653031</v>
+        <v>0.003911102666694309</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01011043135404196</v>
+        <v>0.005287009257597737</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01051163134584235</v>
+        <v>0.002626703181457767</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0189661405425142</v>
+        <v>0.001968044579653519</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01825993054275935</v>
+        <v>0.009444553146093108</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.008570365895708126</v>
+        <v>0.002670411955654958</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02729307693451117</v>
+        <v>0.01739977778065765</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.006492122336924015</v>
+        <v>0.001199030614177258</v>
       </c>
     </row>
   </sheetData>
